--- a/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="940" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="940" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="MARKS RACKER" sheetId="8" r:id="rId1"/>
@@ -17,17 +17,22 @@
     <sheet name="COST MADE BY COMPANY" sheetId="1" r:id="rId8"/>
     <sheet name="Index and match function" sheetId="9" r:id="rId9"/>
     <sheet name="match and index function sample" sheetId="10" r:id="rId10"/>
-    <sheet name="DATASET" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
+    <sheet name="DATASET" sheetId="11" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -335,6 +340,21 @@
     <t>Revenue</t>
   </si>
   <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Count of Names</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
     <t>Names</t>
   </si>
   <si>
@@ -347,9 +367,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Degree</t>
-  </si>
-  <si>
     <t>IRAGENA Aimable</t>
   </si>
   <si>
@@ -359,9 +376,6 @@
     <t>Finance Department</t>
   </si>
   <si>
-    <t>Masters</t>
-  </si>
-  <si>
     <t>Mugabe Frank Olivier</t>
   </si>
   <si>
@@ -374,9 +388,6 @@
     <t>Married</t>
   </si>
   <si>
-    <t>Bachelor</t>
-  </si>
-  <si>
     <t>Iradukunda Martha</t>
   </si>
   <si>
@@ -390,9 +401,6 @@
   </si>
   <si>
     <t>Joly Ellen</t>
-  </si>
-  <si>
-    <t>PhD</t>
   </si>
   <si>
     <t>Nshuti Freddy</t>
@@ -420,11 +428,11 @@
   <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -486,8 +494,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,51 +572,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -555,7 +580,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,15 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,6 +610,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,33 +631,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -651,97 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,61 +677,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +714,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,13 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,17 +947,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,26 +973,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,148 +1010,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,16 +1168,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1184,13 +1192,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1199,7 +1207,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2761,6 +2769,297 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[microsft-excel-file-entire-class-work-with-sheets.xlsx]Sheet6!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Bachelor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Masters</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PhD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="309340834"/>
+        <c:axId val="983778385"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="309340834"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983778385"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="983778385"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309340834"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2881,6 +3180,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
   <cs:axisTitle>
@@ -4572,6 +4911,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4681,6 +5523,64 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>746125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3270250" y="60325"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Degrees"/>
+      <sheetName val="Department"/>
+      <sheetName val="Martial status"/>
+      <sheetName val="DOB"/>
+      <sheetName val="DATASET"/>
+      <sheetName val="DASHBOARD"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45736.3944907407" refreshedBy="jmutangana" recordCount="13">
   <cacheSource type="worksheet">
@@ -4734,7 +5634,7 @@
         <n v="109000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="178">
+    <cacheField name="Price" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4900" count="11">
         <n v="4000"/>
         <n v="2500"/>
@@ -4749,7 +5649,7 @@
         <n v="3700"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cost" numFmtId="178">
+    <cacheField name="Cost" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4500" count="9">
         <n v="3000"/>
         <n v="2000"/>
@@ -4763,6 +5663,62 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Profit Made" numFmtId="0" formula="Price-Cost" databaseField="0"/>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45768.8489351852" refreshedBy="jmutangana" recordCount="11">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Names" numFmtId="0">
+      <sharedItems count="11">
+        <s v="IRAGENA Aimable"/>
+        <s v="Mugabe Frank Olivier"/>
+        <s v="Mutoni Queen"/>
+        <s v="Iradukunda Martha"/>
+        <s v="Ineza Ghandhi"/>
+        <s v="NIragire Rhenia"/>
+        <s v="Joly Ellen"/>
+        <s v="Nshuti Freddy"/>
+        <s v="Uwase Diane"/>
+        <s v="Niyomufasha Emerance"/>
+        <s v="Hesha Hassa"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date of Birth" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2005" count="5">
+        <n v="2002"/>
+        <n v="2003"/>
+        <n v="2004"/>
+        <n v="2005"/>
+        <n v="2001"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Martial Status" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Single"/>
+        <s v="Married"/>
+        <s v="Widow"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Finance Department"/>
+        <s v="Marketing Department"/>
+        <s v="Producerement Department"/>
+        <s v="Human resources Department"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Degree" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Masters"/>
+        <s v="Bachelor"/>
+        <s v="PhD"/>
+      </sharedItems>
+    </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
@@ -4876,6 +5832,88 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
@@ -4931,7 +5969,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -4947,7 +5985,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -4961,7 +5999,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="178" showAll="0"/>
+    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -5015,7 +6053,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="177"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
@@ -5081,7 +6119,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -5097,7 +6135,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -5111,7 +6149,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="178" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
@@ -5271,7 +6309,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="178" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -5287,7 +6325,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="178" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -5301,7 +6339,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="178" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -5364,6 +6402,93 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Names" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Names"/>
+    <tableColumn id="2" name="Date of Birth"/>
+    <tableColumn id="3" name="Martial Status"/>
+    <tableColumn id="4" name="Department"/>
+    <tableColumn id="5" name="Degree"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6259,10 +7384,72 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.2"/>
+    <col min="2" max="4" width="15.3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -6273,211 +7460,214 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>2002</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>2003</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4">
         <v>2002</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>2003</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>2004</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <v>2005</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <v>2004</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>2001</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>2001</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>2004</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="940" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="21930" windowHeight="12450" tabRatio="940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MARKS RACKER" sheetId="8" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Sheet6" sheetId="12" r:id="rId11"/>
     <sheet name="DATASET" sheetId="11" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId13"/>
@@ -427,12 +424,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -503,25 +500,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,7 +530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,80 +548,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,6 +564,74 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -659,7 +656,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +680,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,55 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,19 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,49 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +905,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -932,17 +944,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,21 +994,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -996,156 +1002,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,16 +1165,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1192,13 +1189,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1207,10 +1204,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1909,9 +1906,8 @@
           <c:h val="0.384898428516673"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1928,24 +1924,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1956,7 +1954,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -1967,7 +1965,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1983,9 +1981,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2129,6 +2127,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2138,11 +2137,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="41"/>
-        <c:overlap val="0"/>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="457488265"/>
         <c:axId val="483157346"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="457488265"/>
         <c:scaling>
@@ -2155,8 +2175,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2165,11 +2188,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
-                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2189,12 +2211,19 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -2202,10 +2231,7 @@
             <a:pPr>
               <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="lt1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2227,36 +2253,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.334329845540608"/>
-          <c:y val="0.068417018014565"/>
-          <c:w val="0.298953662182362"/>
-          <c:h val="0.112303564584132"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2272,7 +2270,7 @@
           <a:pPr>
             <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2287,23 +2285,12 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:srgbClr val="7B32B2"/>
-        </a:gs>
-        <a:gs pos="0">
-          <a:srgbClr val="401A5D"/>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="5400000" scaled="0"/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3786,63 +3773,53 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="68000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3856,33 +3833,34 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -3891,26 +3869,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3923,26 +3889,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3950,27 +3904,24 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="84000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -3983,29 +3934,18 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4025,21 +3965,20 @@
     </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4047,7 +3986,9 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4062,9 +4003,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4078,19 +4019,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
   <cs:errorBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4099,13 +4049,18 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:errorBar>
   <cs:floor>
@@ -4117,7 +4072,9 @@
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4126,9 +4083,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4136,7 +4092,9 @@
     </cs:spPr>
   </cs:gridlineMajor>
   <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4145,16 +4103,17 @@
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
   <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4163,17 +4122,19 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
   <cs:leaderLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4182,9 +4143,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4195,10 +4156,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -4219,21 +4177,20 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4242,7 +4199,9 @@
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4251,61 +4210,56 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -4319,9 +4273,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4332,10 +4286,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5457,16 +5408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>384175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>822325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5474,7 +5425,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6746875" y="1861820"/>
+        <a:off x="5508625" y="328295"/>
         <a:ext cx="6372225" cy="3313430"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5558,35 +5509,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Degrees"/>
-      <sheetName val="Department"/>
-      <sheetName val="Martial status"/>
-      <sheetName val="DOB"/>
-      <sheetName val="DATASET"/>
-      <sheetName val="DASHBOARD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45736.3944907407" refreshedBy="jmutangana" recordCount="13">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F14" sheet="CAR COMPANY RECORDS"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="Make" numFmtId="0">
       <sharedItems count="5">
         <s v="Honda"/>
@@ -5619,7 +5547,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Mileage" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="138800" count="12">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55233" maxValue="138800" count="12">
         <n v="63512"/>
         <n v="95135"/>
         <n v="101345"/>
@@ -5634,8 +5562,8 @@
         <n v="109000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="177">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4900" count="11">
+    <cacheField name="Price" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="4900" count="11">
         <n v="4000"/>
         <n v="2500"/>
         <n v="2000"/>
@@ -5649,8 +5577,8 @@
         <n v="3700"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cost" numFmtId="177">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4500" count="9">
+    <cacheField name="Cost" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1500" maxValue="4500" count="9">
         <n v="3000"/>
         <n v="2000"/>
         <n v="1500"/>
@@ -5663,6 +5591,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Profit Made" numFmtId="0" formula="Price-Cost" databaseField="0"/>
+    <cacheField name="Field1" numFmtId="0" formula="Make" databaseField="0"/>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
@@ -5689,7 +5618,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date of Birth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2005" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2005" count="5">
         <n v="2002"/>
         <n v="2003"/>
         <n v="2004"/>
@@ -5917,7 +5846,7 @@
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="6">
         <item x="4"/>
@@ -5969,7 +5898,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="176" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -5985,7 +5914,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="176" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -5999,7 +5928,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -6053,7 +5983,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="177"/>
+    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="176"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
@@ -6067,7 +5997,7 @@
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D30" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" showAll="0">
       <items count="6">
         <item x="4"/>
@@ -6091,7 +6021,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" showAll="0">
+    <pivotField axis="axisRow" compact="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item x="3"/>
         <item x="1"/>
@@ -6119,7 +6049,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="176" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -6135,7 +6065,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -6149,7 +6079,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="0"/>
@@ -6257,7 +6188,7 @@
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="7">
+  <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="6">
         <item x="4"/>
@@ -6309,7 +6240,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="177" showAll="0">
+    <pivotField compact="0" numFmtId="176" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -6325,7 +6256,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -6339,7 +6270,8 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -6408,7 +6340,22 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
-    <pivotField dataField="1" compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0">
+      <items count="12">
+        <item x="10"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="6">
         <item x="4"/>
@@ -7386,7 +7333,7 @@
   <sheetPr/>
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -8548,7 +8495,7 @@
   <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -8694,8 +8641,8 @@
   <sheetPr/>
   <dimension ref="A3:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8731,6 +8678,7 @@
       <c r="B5" t="s">
         <v>75</v>
       </c>
+      <c r="C5"/>
       <c r="D5">
         <v>1</v>
       </c>
@@ -8747,6 +8695,7 @@
       <c r="B7" t="s">
         <v>69</v>
       </c>
+      <c r="C7"/>
       <c r="D7">
         <v>1</v>
       </c>
@@ -8763,6 +8712,8 @@
       <c r="A9" t="s">
         <v>79</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
       <c r="D9">
         <v>1</v>
       </c>
@@ -8771,6 +8722,7 @@
       <c r="B10" t="s">
         <v>72</v>
       </c>
+      <c r="C10"/>
       <c r="D10">
         <v>1</v>
       </c>
@@ -8787,6 +8739,8 @@
       <c r="A12" t="s">
         <v>65</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="D12">
         <v>4</v>
       </c>
@@ -8795,6 +8749,7 @@
       <c r="B13" t="s">
         <v>68</v>
       </c>
+      <c r="C13"/>
       <c r="D13">
         <v>1</v>
       </c>
@@ -8811,6 +8766,7 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
+      <c r="C15"/>
       <c r="D15">
         <v>1</v>
       </c>
@@ -8827,6 +8783,7 @@
       <c r="B17" t="s">
         <v>69</v>
       </c>
+      <c r="C17"/>
       <c r="D17">
         <v>1</v>
       </c>
@@ -8843,6 +8800,7 @@
       <c r="B19" t="s">
         <v>78</v>
       </c>
+      <c r="C19"/>
       <c r="D19">
         <v>1</v>
       </c>
@@ -8915,6 +8873,7 @@
       <c r="B28" t="s">
         <v>69</v>
       </c>
+      <c r="C28"/>
       <c r="D28">
         <v>1</v>
       </c>
@@ -8931,6 +8890,7 @@
       <c r="A30" t="s">
         <v>85</v>
       </c>
+      <c r="B30"/>
       <c r="D30">
         <v>13</v>
       </c>

--- a/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="12450" tabRatio="940" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="22770" windowHeight="12450" tabRatio="940" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="MARKS RACKER" sheetId="8" r:id="rId1"/>
@@ -22,27 +22,28 @@
     <sheet name="martial status" sheetId="15" r:id="rId13"/>
     <sheet name="dob" sheetId="16" r:id="rId14"/>
     <sheet name="dshboard" sheetId="17" r:id="rId15"/>
+    <sheet name="DateFunction" sheetId="18" r:id="rId16"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_Degree">#N/A</definedName>
+    <definedName name="Slicer_Department">#N/A</definedName>
+    <definedName name="Slicer_Martial_Status">#N/A</definedName>
+    <definedName name="Slicer_Date_of_Birth">#N/A</definedName>
     <definedName name="Slicer_Names">#N/A</definedName>
-    <definedName name="Slicer_Date_of_Birth">#N/A</definedName>
-    <definedName name="Slicer_Martial_Status">#N/A</definedName>
-    <definedName name="Slicer_Department">#N/A</definedName>
-    <definedName name="Slicer_Degree">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
-    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId23"/>
         <x14:slicerCache r:id="rId22"/>
         <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId20"/>
         <x14:slicerCache r:id="rId19"/>
-        <x14:slicerCache r:id="rId18"/>
       </x14:slicerCaches>
     </ext>
   </extLst>
@@ -443,15 +444,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="9">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -513,16 +515,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,9 +562,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,14 +601,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,39 +645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,37 +655,6 @@
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,7 +679,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +745,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,37 +817,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,61 +841,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,43 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,11 +928,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,21 +972,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,30 +993,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1009,17 +1002,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,121 +1030,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1151,30 +1153,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1186,16 +1197,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1210,13 +1221,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1225,10 +1236,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12972,7 +12983,7 @@
         <n v="109000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="176">
+    <cacheField name="Price" numFmtId="180">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4900" count="11">
         <n v="4000"/>
         <n v="2500"/>
@@ -12987,7 +12998,7 @@
         <n v="3700"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cost" numFmtId="176">
+    <cacheField name="Cost" numFmtId="180">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4500" count="9">
         <n v="3000"/>
         <n v="2000"/>
@@ -13028,7 +13039,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Date of Birth" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2001" maxValue="2005" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2005" count="5">
         <n v="2002"/>
         <n v="2003"/>
         <n v="2004"/>
@@ -13313,7 +13324,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0">
+    <pivotField compact="0" numFmtId="180" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13329,7 +13340,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0">
+    <pivotField compact="0" numFmtId="180" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13343,7 +13354,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -13398,7 +13409,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="176"/>
+    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="180"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
@@ -13464,7 +13475,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0">
+    <pivotField compact="0" numFmtId="180" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13480,7 +13491,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13494,7 +13505,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
@@ -13655,7 +13666,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="176" showAll="0">
+    <pivotField compact="0" numFmtId="180" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13671,7 +13682,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="176" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13685,7 +13696,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="176" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -14113,24 +14124,19 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Names" sourceName="Names">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Degree" sourceName="Degree">
   <pivotTables>
     <pivotTable tabId="13" name="PivotTable1"/>
+    <pivotTable tabId="14" name="PivotTable2"/>
+    <pivotTable tabId="15" name="PivotTable3"/>
+    <pivotTable tabId="16" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="11">
-        <i x="10" s="1"/>
-        <i x="4" s="1"/>
-        <i x="3" s="1"/>
+      <items count="3">
+        <i x="1" s="1"/>
         <i x="0" s="1"/>
-        <i x="6" s="1"/>
-        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="9" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -14139,7 +14145,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Date_of_Birth" sourceName="Date of Birth">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Department" sourceName="Department">
   <pivotTables>
     <pivotTable tabId="13" name="PivotTable1"/>
     <pivotTable tabId="14" name="PivotTable2"/>
@@ -14148,12 +14154,11 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="5">
-        <i x="4" s="1"/>
+      <items count="4">
         <i x="0" s="1"/>
+        <i x="3" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="1"/>
       </items>
     </tabular>
   </data>
@@ -14180,7 +14185,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Department" sourceName="Department">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Date_of_Birth" sourceName="Date of Birth">
   <pivotTables>
     <pivotTable tabId="13" name="PivotTable1"/>
     <pivotTable tabId="14" name="PivotTable2"/>
@@ -14189,11 +14194,12 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="4">
+      <items count="5">
+        <i x="4" s="1"/>
         <i x="0" s="1"/>
-        <i x="3" s="1"/>
         <i x="1" s="1"/>
         <i x="2" s="1"/>
+        <i x="3" s="1"/>
       </items>
     </tabular>
   </data>
@@ -14202,19 +14208,24 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Degree" sourceName="Degree">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Names" sourceName="Names">
   <pivotTables>
     <pivotTable tabId="13" name="PivotTable1"/>
-    <pivotTable tabId="14" name="PivotTable2"/>
-    <pivotTable tabId="15" name="PivotTable3"/>
-    <pivotTable tabId="16" name="PivotTable4"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="3">
+      <items count="11">
+        <i x="10" s="1"/>
+        <i x="4" s="1"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="6" s="1"/>
         <i x="1" s="1"/>
-        <i x="0" s="1"/>
         <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="9" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -14513,411 +14524,411 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" ht="17.25" spans="1:15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="34">
         <v>2010</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="34">
         <v>15</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="34">
         <v>15</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="34">
         <v>28</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="34">
         <v>60</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="34">
         <v>35</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="34">
         <f t="shared" ref="L2:L8" si="0">SUM(J2:K2)</f>
         <v>95</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="34">
         <f t="shared" ref="M2:M8" si="1">L2/5</f>
         <v>19</v>
       </c>
-      <c r="N2" s="31" t="str">
+      <c r="N2" s="34" t="str">
         <f t="shared" ref="N2:N8" si="2">IF(M2&gt;9.9,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="O2" s="33" t="str">
+      <c r="O2" s="36" t="str">
         <f>IF(M2&gt;=19,"A",IF(M2&gt;=17,"B",IF(M2&gt;=15,"C+",IF(M2&gt;=13,"C",IF(M2&gt;=11,"D+",IF(M2&gt;=10,"D",IF(M2&lt;10,"F")))))))</f>
         <v>A</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="34">
         <v>2009</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="34">
         <v>13</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="34">
         <v>4</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="34">
         <v>15</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="34">
         <f t="shared" ref="J3:J8" si="3">SUM(G3:I3)</f>
         <v>32</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="34">
         <v>30</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="34">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="34">
         <f t="shared" si="1"/>
         <v>12.4</v>
       </c>
-      <c r="N3" s="31" t="str">
+      <c r="N3" s="34" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="O3" s="34" t="str">
+      <c r="O3" s="37" t="str">
         <f t="shared" ref="O2:O8" si="4">IF(M3&gt;=19,"A",IF(M3&gt;=17,"B",IF(M3&gt;=15,"C+",IF(M3&gt;=13,"C",IF(M3&gt;=11,"D+",IF(M3&gt;=10,"D",IF(M3&lt;10,"F")))))))</f>
         <v>D+</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="34">
         <v>2010</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="34">
         <v>7</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="34">
         <v>10</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="34">
         <v>14</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="34">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="34">
         <v>12</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="34">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="34">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="N4" s="31" t="str">
+      <c r="N4" s="34" t="str">
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="O4" s="34" t="str">
+      <c r="O4" s="37" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="34">
         <v>2007</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="34">
         <v>14</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="34">
         <v>12</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="34">
         <v>17</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="34">
         <v>12</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="34">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="34">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="34" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="O5" s="34" t="str">
+      <c r="O5" s="37" t="str">
         <f t="shared" si="4"/>
         <v>D+</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="34">
         <v>2009</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="34">
         <v>8</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="34">
         <v>15</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="34">
         <v>20</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="34">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="34">
         <v>25</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="34">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="34">
         <f t="shared" si="1"/>
         <v>13.6</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="34" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="O6" s="34" t="str">
+      <c r="O6" s="37" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="34">
         <v>2008</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="34">
         <v>4</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="34">
         <v>11</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="34">
         <v>6</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="34">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="34">
         <v>18</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="34">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="34">
         <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="34" t="str">
         <f t="shared" si="2"/>
         <v>FAIL</v>
       </c>
-      <c r="O7" s="34" t="str">
+      <c r="O7" s="37" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="34">
         <v>2008</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="34">
         <v>15</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="34">
         <v>15</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="34">
         <v>30</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="34">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="34">
         <v>25</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="34">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="34">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="34" t="str">
         <f t="shared" si="2"/>
         <v>PASS</v>
       </c>
-      <c r="O8" s="34" t="str">
+      <c r="O8" s="37" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
@@ -15021,19 +15032,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15529,6 +15540,94 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.4" style="1"/>
+    <col min="2" max="2" width="8.8" style="1"/>
+    <col min="3" max="3" width="9.3" style="1"/>
+    <col min="4" max="6" width="8.8" style="1"/>
+    <col min="7" max="7" width="12.5" style="1"/>
+    <col min="8" max="16384" width="8.8" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="str">
+        <f>TEXT(DATE(2002,10,13),"dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f ca="1">DATEDIF(DATE(2002,10,13),TODAY(),"y")&amp;" years, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"ym")&amp;"months, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"md")&amp;" days"</f>
+        <v>22 years, 7months, 6 days</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="2">
+        <v>37542</v>
+      </c>
+      <c r="B6" s="1">
+        <f ca="1">DATEDIF(A6,TODAY(),"y")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B7" s="1">
+        <f ca="1">DATEDIF(A7,TODAY(),"y")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="1" t="str">
+        <f ca="1">DATEDIF(DATE(2002,10,13),TODAY(),"y")&amp;" Years, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"ym")&amp;" Months, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"md")&amp;" Days"</f>
+        <v>22 Years, 7 Months, 6 Days</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="4:6">
+      <c r="D12" s="3">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="7:7">
+      <c r="G14" s="1">
+        <f>(((1/2)+(2/3))/5)^3</f>
+        <v>0.0127037037037037</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:1">
+      <c r="A15" s="1" t="str">
+        <f ca="1">DATEDIF(A6,TODAY(),"y")&amp;" Years,"&amp;DATEDIF(A6,TODAY(),"ym")&amp;" Months, "&amp;DATEDIF(A6,TODAY(),"md")&amp;" Days."</f>
+        <v>22 Years,7 Months, 6 Days.</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:1">
+      <c r="A49" s="1" t="str">
+        <f>TEXT(A6,"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -15541,96 +15640,96 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="26">
         <v>4</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="26">
         <v>2200</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="26">
         <f t="shared" ref="D2:D8" si="0">C2*B2</f>
         <v>8800</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26">
         <f>D2*H$2</f>
         <v>1584</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="26">
         <f t="shared" ref="F2:F8" si="1">D2-E2</f>
         <v>7216</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="23">
         <f>SUMIF(A2:A8,"Salt",F2:F8)</f>
         <v>984</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="29">
         <v>0.18</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="26">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="26">
         <v>200</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="26">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="26">
         <f>D3*H$2</f>
         <v>72</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="26">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="23" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J3">
@@ -15639,207 +15738,207 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="26">
         <v>200</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="26">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <f>D4*H$2</f>
         <v>72</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="26">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="26">
         <v>200</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="26">
         <f>D5*H$2</f>
         <v>72</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="26">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="26">
         <v>25</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="26">
         <v>900</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="26">
         <f t="shared" si="0"/>
         <v>22500</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="26">
         <f>D6*H$2</f>
         <v>4050</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="26">
         <f t="shared" si="1"/>
         <v>18450</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="26">
         <v>2500</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="26">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <f>D7*H$2</f>
         <v>1800</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="26">
         <f t="shared" si="1"/>
         <v>8200</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="26">
         <v>24</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="26">
         <v>700</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="26">
         <f t="shared" si="0"/>
         <v>16800</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="26">
         <f>D8*H$2</f>
         <v>3024</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="26">
         <f t="shared" si="1"/>
         <v>13776</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="27">
         <f t="shared" ref="C9:F9" si="2">SUM(C2:C8)</f>
         <v>6900</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="27">
         <f t="shared" si="2"/>
         <v>59300</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="27">
         <f t="shared" si="2"/>
         <v>10674</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="27">
         <f t="shared" si="2"/>
         <v>48626</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -15864,32 +15963,32 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -15915,166 +16014,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="24">
         <v>200</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>100</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="24">
         <v>70</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="24">
         <v>5</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="23">
         <f t="shared" ref="F2:F8" si="0">SUM(C2:E2)</f>
         <v>175</v>
       </c>
-      <c r="G2" s="20" t="str">
+      <c r="G2" s="23" t="str">
         <f>IF(F2&gt;B2,"Beyond Budget",IF(F2&lt;=B2,"Within Budget"))</f>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="24">
         <v>250</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="20" t="str">
+      <c r="G3" s="23" t="str">
         <f t="shared" ref="G3:G8" si="1">IF(F3&gt;B3,"Beyond budet",IF(F3&lt;=B3,"Within Budget"))</f>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="24">
         <v>150</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="20" t="str">
+      <c r="G4" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>290</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="str">
+      <c r="G5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="24">
         <v>100</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="24">
         <v>140</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="24">
         <v>300</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23">
         <v>300</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G8" s="20" t="str">
-        <f>IF(F8&gt;B8,"Beyond budet",IF(F8&lt;=B8,"Within Budget"))</f>
+      <c r="G8" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
@@ -16114,22 +16213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -16143,13 +16242,13 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="19">
         <v>63512</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="17">
         <v>4000</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="17">
         <v>3000</v>
       </c>
     </row>
@@ -16163,13 +16262,13 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="19">
         <v>95135</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="17">
         <v>2500</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="17">
         <v>2000</v>
       </c>
     </row>
@@ -16183,13 +16282,13 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="19">
         <v>101345</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="17">
         <v>2000</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>1500</v>
       </c>
     </row>
@@ -16203,13 +16302,13 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="19">
         <v>75000</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="17">
         <v>2200</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="17">
         <v>1900</v>
       </c>
     </row>
@@ -16223,13 +16322,13 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="19">
         <v>69000</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="17">
         <v>3800</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="17">
         <v>3000</v>
       </c>
     </row>
@@ -16243,13 +16342,13 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="19">
         <v>55233</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="17">
         <v>2900</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="17">
         <v>2500</v>
       </c>
     </row>
@@ -16263,13 +16362,13 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="19">
         <v>87000</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="17">
         <v>2200</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="17">
         <v>2100</v>
       </c>
     </row>
@@ -16283,13 +16382,13 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="19">
         <v>130600</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="17">
         <v>2700</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="17">
         <v>2200</v>
       </c>
     </row>
@@ -16303,13 +16402,13 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="19">
         <v>59000</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="17">
         <v>2100</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="17">
         <v>2000</v>
       </c>
     </row>
@@ -16323,13 +16422,13 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="19">
         <v>138800</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="17">
         <v>2700</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="17">
         <v>1900</v>
       </c>
     </row>
@@ -16343,13 +16442,13 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="19">
         <v>89000</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="17">
         <v>3900</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="17">
         <v>3000</v>
       </c>
     </row>
@@ -16366,10 +16465,10 @@
       <c r="D13">
         <v>109000</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="17">
         <v>4900</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="17">
         <v>4500</v>
       </c>
     </row>
@@ -16383,13 +16482,13 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="19">
         <v>87000</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="17">
         <v>3700</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="17">
         <v>3500</v>
       </c>
     </row>
@@ -16431,7 +16530,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="17">
         <v>600</v>
       </c>
     </row>
@@ -16439,7 +16538,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="17">
         <v>200</v>
       </c>
     </row>
@@ -16447,7 +16546,7 @@
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="17">
         <v>400</v>
       </c>
     </row>
@@ -16455,7 +16554,7 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="17">
         <v>900</v>
       </c>
     </row>
@@ -16463,7 +16562,7 @@
       <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="17">
         <v>900</v>
       </c>
     </row>
@@ -16471,7 +16570,7 @@
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="17">
         <v>2800</v>
       </c>
     </row>
@@ -16479,7 +16578,7 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="17">
         <v>2000</v>
       </c>
     </row>
@@ -16487,7 +16586,7 @@
       <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="17">
         <v>800</v>
       </c>
     </row>
@@ -16495,7 +16594,7 @@
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="17">
         <v>1200</v>
       </c>
     </row>
@@ -16503,7 +16602,7 @@
       <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="17">
         <v>1200</v>
       </c>
     </row>
@@ -16511,7 +16610,7 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -16519,7 +16618,7 @@
       <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="17">
         <v>300</v>
       </c>
     </row>
@@ -16527,7 +16626,7 @@
       <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="17">
         <v>700</v>
       </c>
     </row>
@@ -16535,7 +16634,7 @@
       <c r="A17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="17">
         <v>6500</v>
       </c>
     </row>
@@ -16952,7 +17051,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -16967,42 +17066,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>4500500</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>37000000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>26000000</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>25600000</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>9700000</v>
       </c>
     </row>
@@ -17010,39 +17109,39 @@
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>9800000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>11000000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>44000000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>17000000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>28000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>32300000</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>5000000</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>14000000</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>19000000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>41000000</v>
       </c>
     </row>
@@ -17050,93 +17149,93 @@
       <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="8">
         <v>11200000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>48000000</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>8000000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>29000000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>37000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>37500000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>6000000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>7300000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>47000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>17000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>29300000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>13300000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>18000000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="10">
         <v>44000000</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>17500000</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="12">
         <f>MATCH(C11,A2:A7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="12">
         <f>MATCH(C12,B1:F1)</f>
         <v>3</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <f>INDEX(B2:F7,MATCH(C11,A2:A7),MATCH(C12,B1:F1))</f>
         <v>7300000</v>
       </c>

--- a/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
+++ b/auca/sem-1/intro-to-computer/excel sample/microsft-excel-file-entire-class-work-with-sheets.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="12450" tabRatio="940" firstSheet="6" activeTab="15"/>
+    <workbookView windowWidth="22770" windowHeight="12450" tabRatio="940" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="MARKS RACKER" sheetId="8" r:id="rId1"/>
+    <sheet name="MARKS TRACKER" sheetId="8" r:id="rId1"/>
     <sheet name="NET PROFIT" sheetId="5" r:id="rId2"/>
     <sheet name="SELECT-PRODUCT" sheetId="6" r:id="rId3"/>
     <sheet name="BUDGET TRUCKER" sheetId="7" r:id="rId4"/>
@@ -23,6 +23,7 @@
     <sheet name="dob" sheetId="16" r:id="rId14"/>
     <sheet name="dshboard" sheetId="17" r:id="rId15"/>
     <sheet name="DateFunction" sheetId="18" r:id="rId16"/>
+    <sheet name="marks sheet" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Degree">#N/A</definedName>
@@ -33,17 +34,17 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
+        <x14:slicerCache r:id="rId24"/>
         <x14:slicerCache r:id="rId23"/>
         <x14:slicerCache r:id="rId22"/>
         <x14:slicerCache r:id="rId21"/>
         <x14:slicerCache r:id="rId20"/>
-        <x14:slicerCache r:id="rId19"/>
       </x14:slicerCaches>
     </ext>
   </extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -185,7 +186,7 @@
     <t>Sugar</t>
   </si>
   <si>
-    <t>Rice</t>
+    <t>Spaghetti</t>
   </si>
   <si>
     <t>Salt</t>
@@ -194,10 +195,10 @@
     <t xml:space="preserve">Net profit </t>
   </si>
   <si>
-    <t>Minimex</t>
+    <t>Rice</t>
   </si>
   <si>
-    <t>Spaghetti</t>
+    <t>Minimex</t>
   </si>
   <si>
     <t>Total</t>
@@ -439,6 +440,24 @@
   <si>
     <t>Count of Names</t>
   </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
 </sst>
 </file>
 
@@ -446,14 +465,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -521,9 +540,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,11 +563,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,11 +578,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,7 +640,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,75 +670,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,13 +698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,19 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +752,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,79 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,7 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,17 +947,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,8 +976,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,32 +987,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,8 +1009,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,153 +1049,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1185,10 +1210,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1197,16 +1219,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1221,13 +1243,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1236,16 +1258,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1280,6 +1299,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -12983,7 +13003,7 @@
         <n v="109000"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Price" numFmtId="180">
+    <cacheField name="Price" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4900" count="11">
         <n v="4000"/>
         <n v="2500"/>
@@ -12998,7 +13018,7 @@
         <n v="3700"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Cost" numFmtId="180">
+    <cacheField name="Cost" numFmtId="177">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="4500" count="9">
         <n v="3000"/>
         <n v="2000"/>
@@ -13324,7 +13344,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="180" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13340,7 +13360,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="180" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13354,7 +13374,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dataField="1" dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -13409,7 +13429,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="180"/>
+    <dataField name="Sum of Profit Made" fld="6" baseField="0" baseItem="0" numFmtId="177"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
@@ -13475,7 +13495,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="180" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13491,7 +13511,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13505,7 +13525,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
@@ -13666,7 +13686,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="180" showAll="0">
+    <pivotField compact="0" numFmtId="177" showAll="0">
       <items count="12">
         <item x="2"/>
         <item x="7"/>
@@ -13682,7 +13702,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="180" showAll="0">
+    <pivotField dataField="1" compact="0" numFmtId="177" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -13696,7 +13716,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="180" showAll="0"/>
+    <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" numFmtId="177" showAll="0"/>
     <pivotField dragToCol="0" dragToPage="0" dragToRow="0" compact="0" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
@@ -14517,11 +14537,17 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="7"/>
+  <cols>
+    <col min="9" max="9" width="17.7" customWidth="1"/>
+    <col min="10" max="10" width="33.6" customWidth="1"/>
+    <col min="11" max="11" width="23.8" customWidth="1"/>
+    <col min="12" max="12" width="17.7" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:15">
       <c r="A1" s="32" t="s">
@@ -14612,11 +14638,11 @@
         <f t="shared" ref="M2:M8" si="1">L2/5</f>
         <v>19</v>
       </c>
-      <c r="N2" s="34" t="str">
-        <f t="shared" ref="N2:N8" si="2">IF(M2&gt;9.9,"PASS","FAIL")</f>
+      <c r="N2" s="36" t="str">
+        <f>IF(M2&gt;9.9,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="O2" s="36" t="str">
+      <c r="O2" s="37" t="str">
         <f>IF(M2&gt;=19,"A",IF(M2&gt;=17,"B",IF(M2&gt;=15,"C+",IF(M2&gt;=13,"C",IF(M2&gt;=11,"D+",IF(M2&gt;=10,"D",IF(M2&lt;10,"F")))))))</f>
         <v>A</v>
       </c>
@@ -14650,7 +14676,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="34">
-        <f t="shared" ref="J3:J8" si="3">SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J8" si="2">SUM(G3:I3)</f>
         <v>32</v>
       </c>
       <c r="K3" s="34">
@@ -14665,10 +14691,10 @@
         <v>12.4</v>
       </c>
       <c r="N3" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N2:N8" si="3">IF(M3&gt;9.9,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="O3" s="37" t="str">
+      <c r="O3" s="38" t="str">
         <f t="shared" ref="O2:O8" si="4">IF(M3&gt;=19,"A",IF(M3&gt;=17,"B",IF(M3&gt;=15,"C+",IF(M3&gt;=13,"C",IF(M3&gt;=11,"D+",IF(M3&gt;=10,"D",IF(M3&lt;10,"F")))))))</f>
         <v>D+</v>
       </c>
@@ -14702,7 +14728,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="K4" s="34">
@@ -14717,10 +14743,10 @@
         <v>8.6</v>
       </c>
       <c r="N4" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FAIL</v>
       </c>
-      <c r="O4" s="37" t="str">
+      <c r="O4" s="38" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
@@ -14754,7 +14780,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K5" s="34">
@@ -14769,10 +14795,10 @@
         <v>11</v>
       </c>
       <c r="N5" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="O5" s="37" t="str">
+      <c r="O5" s="38" t="str">
         <f t="shared" si="4"/>
         <v>D+</v>
       </c>
@@ -14806,7 +14832,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="K6" s="34">
@@ -14821,10 +14847,10 @@
         <v>13.6</v>
       </c>
       <c r="N6" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="O6" s="37" t="str">
+      <c r="O6" s="38" t="str">
         <f t="shared" si="4"/>
         <v>C</v>
       </c>
@@ -14858,7 +14884,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K7" s="34">
@@ -14873,10 +14899,10 @@
         <v>7.8</v>
       </c>
       <c r="N7" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FAIL</v>
       </c>
-      <c r="O7" s="37" t="str">
+      <c r="O7" s="38" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
@@ -14910,7 +14936,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K8" s="34">
@@ -14925,10 +14951,10 @@
         <v>17</v>
       </c>
       <c r="N8" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PASS</v>
       </c>
-      <c r="O8" s="37" t="str">
+      <c r="O8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>B</v>
       </c>
@@ -15032,19 +15058,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15545,81 +15571,217 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.4" style="1"/>
-    <col min="2" max="2" width="8.8" style="1"/>
-    <col min="3" max="3" width="9.3" style="1"/>
-    <col min="4" max="6" width="8.8" style="1"/>
-    <col min="7" max="7" width="12.5" style="1"/>
-    <col min="8" max="16384" width="8.8" style="1"/>
+    <col min="1" max="1" width="10.4" style="3"/>
+    <col min="2" max="2" width="8.8" style="3"/>
+    <col min="3" max="3" width="9.3" style="3"/>
+    <col min="4" max="6" width="8.8" style="3"/>
+    <col min="7" max="7" width="12.5" style="3"/>
+    <col min="8" max="16384" width="8.8" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="str">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="str">
         <f>TEXT(DATE(2002,10,13),"dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="3" t="str">
         <f ca="1">DATEDIF(DATE(2002,10,13),TODAY(),"y")&amp;" years, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"ym")&amp;"months, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"md")&amp;" days"</f>
-        <v>22 years, 7months, 6 days</v>
+        <v>22 years, 7months, 7 days</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="2">
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="4">
         <v>37542</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <f ca="1">DATEDIF(A6,TODAY(),"y")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:2">
-      <c r="A7" s="2">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="4">
         <v>36892</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <f ca="1">DATEDIF(A7,TODAY(),"y")</f>
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="1" t="str">
+    <row r="11" s="3" customFormat="1" spans="1:1">
+      <c r="A11" s="3" t="str">
         <f ca="1">DATEDIF(DATE(2002,10,13),TODAY(),"y")&amp;" Years, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"ym")&amp;" Months, "&amp;DATEDIF(DATE(2002,10,13),TODAY(),"md")&amp;" Days"</f>
-        <v>22 Years, 7 Months, 6 Days</v>
+        <v>22 Years, 7 Months, 7 Days</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="4:6">
-      <c r="D12" s="3">
+    <row r="12" s="3" customFormat="1" spans="4:6">
+      <c r="D12" s="5">
         <v>0.666666666666667</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="7:7">
-      <c r="G14" s="1">
+    <row r="14" s="3" customFormat="1" spans="7:7">
+      <c r="G14" s="3">
         <f>(((1/2)+(2/3))/5)^3</f>
         <v>0.0127037037037037</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:1">
-      <c r="A15" s="1" t="str">
+    <row r="15" s="3" customFormat="1" spans="1:1">
+      <c r="A15" s="3" t="str">
         <f ca="1">DATEDIF(A6,TODAY(),"y")&amp;" Years,"&amp;DATEDIF(A6,TODAY(),"ym")&amp;" Months, "&amp;DATEDIF(A6,TODAY(),"md")&amp;" Days."</f>
-        <v>22 Years,7 Months, 6 Days.</v>
+        <v>22 Years,7 Months, 7 Days.</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:1">
-      <c r="A49" s="1" t="str">
+    <row r="49" s="3" customFormat="1" spans="1:1">
+      <c r="A49" s="3" t="str">
         <f>TEXT(A6,"dddd")</f>
         <v>Sunday</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.6" customWidth="1"/>
+    <col min="6" max="6" width="12.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:D2)</f>
+        <v>215</v>
+      </c>
+      <c r="F2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>71.6666666666667</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2&gt;=80,"A",IF(F2&gt;=70,"B",IF(F2&gt;=60,"C",IF(F2&gt;=50,"D","F"))))</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <f>SUM(B3:D3)</f>
+        <v>253</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(B3:D3)</f>
+        <v>84.3333333333333</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(F3&gt;=80,"A",IF(F3&gt;=70,"B",IF(F3&gt;=60,"C",IF(F3&gt;=50,"D","F"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>150</v>
+      </c>
+      <c r="F4" s="2">
+        <f>AVERAGE(B4:D4)</f>
+        <v>50</v>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(F4&gt;=80,"A",IF(F4&gt;=70,"B",IF(F4&gt;=60,"C",IF(F4&gt;=50,"D","F"))))</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f>SUM(B5:D5)</f>
+        <v>120</v>
+      </c>
+      <c r="F5" s="2">
+        <f>AVERAGE(B5:D5)</f>
+        <v>40</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(F5&gt;=80,"A",IF(F5&gt;=70,"B",IF(F5&gt;=60,"C",IF(F5&gt;=50,"D","F"))))</f>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -15631,15 +15793,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="10.3" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
@@ -15661,15 +15827,15 @@
       <c r="G1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
@@ -15691,21 +15857,21 @@
         <f t="shared" ref="F2:F8" si="1">D2-E2</f>
         <v>7216</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="3">
         <f>SUMIF(A2:A8,"Salt",F2:F8)</f>
         <v>984</v>
       </c>
       <c r="H2" s="29">
         <v>0.18</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="26" t="s">
         <v>45</v>
       </c>
@@ -15727,14 +15893,14 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="29"/>
-      <c r="I3" s="26" t="s">
+      <c r="K3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J3">
-        <f>SUMIF(A2:A8,J2,F2:F8)</f>
-        <v>18450</v>
+      <c r="L3" s="13">
+        <f>SUMIF(A2:A8,L2,F2:F8)</f>
+        <v>13776</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -15759,8 +15925,8 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
@@ -15784,12 +15950,12 @@
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="26">
         <v>25</v>
@@ -15809,12 +15975,12 @@
         <f t="shared" si="1"/>
         <v>18450</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="26">
         <v>4</v>
@@ -15834,12 +16000,12 @@
         <f t="shared" si="1"/>
         <v>8200</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="26">
         <v>24</v>
@@ -15859,11 +16025,11 @@
         <f t="shared" si="1"/>
         <v>13776</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="23"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
@@ -15883,66 +16049,66 @@
         <f t="shared" si="2"/>
         <v>48626</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error selection" error="Invalid Option" promptTitle="Select" prompt="PLease Use DropDown" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error selection" error="Invalid Option" promptTitle="Select" prompt="PLease Use DropDown" sqref="L2">
       <formula1>'SELECT-PRODUCT'!A2:A6</formula1>
     </dataValidation>
   </dataValidations>
@@ -15957,7 +16123,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -15979,17 +16145,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -16014,30 +16180,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="24">
@@ -16052,127 +16218,127 @@
       <c r="E2" s="24">
         <v>5</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F8" si="0">SUM(C2:E2)</f>
         <v>175</v>
       </c>
-      <c r="G2" s="23" t="str">
+      <c r="G2" s="3" t="str">
         <f>IF(F2&gt;B2,"Beyond Budget",IF(F2&lt;=B2,"Within Budget"))</f>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="24">
         <v>250</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="3" t="str">
         <f t="shared" ref="G3:G8" si="1">IF(F3&gt;B3,"Beyond budet",IF(F3&lt;=B3,"Within Budget"))</f>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="24">
         <v>150</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="23" t="str">
+      <c r="G4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="24">
         <v>290</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="23" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="24">
         <v>100</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="23" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="24">
         <v>140</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="23" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="24">
         <v>300</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Within Budget</v>
       </c>
@@ -16213,22 +16379,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -16242,13 +16408,13 @@
       <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="20">
         <v>63512</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <v>4000</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="18">
         <v>3000</v>
       </c>
     </row>
@@ -16262,13 +16428,13 @@
       <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <v>95135</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="18">
         <v>2500</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="18">
         <v>2000</v>
       </c>
     </row>
@@ -16282,13 +16448,13 @@
       <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="20">
         <v>101345</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <v>2000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>1500</v>
       </c>
     </row>
@@ -16302,13 +16468,13 @@
       <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <v>75000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <v>2200</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>1900</v>
       </c>
     </row>
@@ -16322,13 +16488,13 @@
       <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="20">
         <v>69000</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>3800</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>3000</v>
       </c>
     </row>
@@ -16342,13 +16508,13 @@
       <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <v>55233</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <v>2900</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>2500</v>
       </c>
     </row>
@@ -16362,13 +16528,13 @@
       <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="20">
         <v>87000</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>2200</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>2100</v>
       </c>
     </row>
@@ -16382,13 +16548,13 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>130600</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="18">
         <v>2700</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>2200</v>
       </c>
     </row>
@@ -16402,13 +16568,13 @@
       <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="20">
         <v>59000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="18">
         <v>2100</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>2000</v>
       </c>
     </row>
@@ -16422,13 +16588,13 @@
       <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>138800</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="18">
         <v>2700</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>1900</v>
       </c>
     </row>
@@ -16442,13 +16608,13 @@
       <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="20">
         <v>89000</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <v>3900</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="18">
         <v>3000</v>
       </c>
     </row>
@@ -16465,10 +16631,10 @@
       <c r="D13">
         <v>109000</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <v>4900</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="18">
         <v>4500</v>
       </c>
     </row>
@@ -16482,13 +16648,13 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <v>87000</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <v>3700</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>3500</v>
       </c>
     </row>
@@ -16530,7 +16696,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>600</v>
       </c>
     </row>
@@ -16538,7 +16704,7 @@
       <c r="B5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>200</v>
       </c>
     </row>
@@ -16546,7 +16712,7 @@
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>400</v>
       </c>
     </row>
@@ -16554,7 +16720,7 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>900</v>
       </c>
     </row>
@@ -16562,7 +16728,7 @@
       <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>900</v>
       </c>
     </row>
@@ -16570,7 +16736,7 @@
       <c r="A9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>2800</v>
       </c>
     </row>
@@ -16578,7 +16744,7 @@
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>2000</v>
       </c>
     </row>
@@ -16586,7 +16752,7 @@
       <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>800</v>
       </c>
     </row>
@@ -16594,7 +16760,7 @@
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <v>1200</v>
       </c>
     </row>
@@ -16602,7 +16768,7 @@
       <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="18">
         <v>1200</v>
       </c>
     </row>
@@ -16610,7 +16776,7 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="18">
         <v>1000</v>
       </c>
     </row>
@@ -16618,7 +16784,7 @@
       <c r="B15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="18">
         <v>300</v>
       </c>
     </row>
@@ -16626,7 +16792,7 @@
       <c r="B16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="18">
         <v>700</v>
       </c>
     </row>
@@ -16634,7 +16800,7 @@
       <c r="A17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="18">
         <v>6500</v>
       </c>
     </row>
@@ -17066,42 +17232,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>4500500</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>37000000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>26000000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>25600000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>9700000</v>
       </c>
     </row>
@@ -17109,39 +17275,39 @@
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>9800000</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>11000000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>44000000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>17000000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <v>28000000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>32300000</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>5000000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>14000000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>19000000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>41000000</v>
       </c>
     </row>
@@ -17149,93 +17315,93 @@
       <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>11200000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>48000000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>8000000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>29000000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>37000000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>37500000</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>6000000</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>7300000</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>47000000</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>17000000</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>29300000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>13300000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>18000000</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>44000000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>17500000</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <f>MATCH(C11,A2:A7)</f>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <f>MATCH(C12,B1:F1)</f>
         <v>3</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16">
         <f>INDEX(B2:F7,MATCH(C11,A2:A7),MATCH(C12,B1:F1))</f>
         <v>7300000</v>
       </c>
